--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H2">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I2">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J2">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.33306566666667</v>
+        <v>52.47402833333333</v>
       </c>
       <c r="N2">
-        <v>90.999197</v>
+        <v>157.422085</v>
       </c>
       <c r="O2">
-        <v>0.510466355126488</v>
+        <v>0.699720168977827</v>
       </c>
       <c r="P2">
-        <v>0.510466355126488</v>
+        <v>0.6997201689778269</v>
       </c>
       <c r="Q2">
-        <v>13.225095298404</v>
+        <v>86.80395446776498</v>
       </c>
       <c r="R2">
-        <v>119.025857685636</v>
+        <v>781.2355902098849</v>
       </c>
       <c r="S2">
-        <v>0.07480444913030973</v>
+        <v>0.2874160728013196</v>
       </c>
       <c r="T2">
-        <v>0.07480444913030974</v>
+        <v>0.2874160728013195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H3">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I3">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J3">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>37.129086</v>
       </c>
       <c r="O3">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="P3">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="Q3">
-        <v>5.396044326552</v>
+        <v>20.473312182174</v>
       </c>
       <c r="R3">
-        <v>48.564398938968</v>
+        <v>184.259809639566</v>
       </c>
       <c r="S3">
-        <v>0.03052137729239408</v>
+        <v>0.06778906584055507</v>
       </c>
       <c r="T3">
-        <v>0.03052137729239408</v>
+        <v>0.06778906584055507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H4">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I4">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J4">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.607805666666667</v>
+        <v>6.377905999999999</v>
       </c>
       <c r="N4">
-        <v>16.823417</v>
+        <v>19.133718</v>
       </c>
       <c r="O4">
-        <v>0.09437213338006703</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="P4">
-        <v>0.09437213338006702</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="Q4">
-        <v>2.444980839444</v>
+        <v>10.550504308662</v>
       </c>
       <c r="R4">
-        <v>22.004827554996</v>
+        <v>94.95453877795799</v>
       </c>
       <c r="S4">
-        <v>0.01382942358463326</v>
+        <v>0.03493371394266515</v>
       </c>
       <c r="T4">
-        <v>0.01382942358463326</v>
+        <v>0.03493371394266515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H5">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I5">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J5">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.105029</v>
+        <v>3.764580333333333</v>
       </c>
       <c r="N5">
-        <v>33.31508700000001</v>
+        <v>11.293741</v>
       </c>
       <c r="O5">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027106</v>
       </c>
       <c r="P5">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027107</v>
       </c>
       <c r="Q5">
-        <v>4.841748223884001</v>
+        <v>6.227470431068999</v>
       </c>
       <c r="R5">
-        <v>43.57573401495601</v>
+        <v>56.047233879621</v>
       </c>
       <c r="S5">
-        <v>0.02738613980036927</v>
+        <v>0.02061974141338077</v>
       </c>
       <c r="T5">
-        <v>0.02738613980036927</v>
+        <v>0.02061974141338077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J6">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.33306566666667</v>
+        <v>52.47402833333333</v>
       </c>
       <c r="N6">
-        <v>90.999197</v>
+        <v>157.422085</v>
       </c>
       <c r="O6">
-        <v>0.510466355126488</v>
+        <v>0.699720168977827</v>
       </c>
       <c r="P6">
-        <v>0.510466355126488</v>
+        <v>0.6997201689778269</v>
       </c>
       <c r="Q6">
-        <v>39.09101038434066</v>
+        <v>67.62464463790332</v>
       </c>
       <c r="R6">
-        <v>351.8190934590659</v>
+        <v>608.6218017411298</v>
       </c>
       <c r="S6">
-        <v>0.2211085388625298</v>
+        <v>0.223911570683439</v>
       </c>
       <c r="T6">
-        <v>0.2211085388625298</v>
+        <v>0.223911570683439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J7">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>37.129086</v>
       </c>
       <c r="O7">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="P7">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="Q7">
         <v>15.949739494812</v>
@@ -883,10 +883,10 @@
         <v>143.547655453308</v>
       </c>
       <c r="S7">
-        <v>0.09021571865915708</v>
+        <v>0.05281109041530283</v>
       </c>
       <c r="T7">
-        <v>0.09021571865915709</v>
+        <v>0.05281109041530283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.866178</v>
       </c>
       <c r="I8">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J8">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.607805666666667</v>
+        <v>6.377905999999999</v>
       </c>
       <c r="N8">
-        <v>16.823417</v>
+        <v>19.133718</v>
       </c>
       <c r="O8">
-        <v>0.09437213338006703</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="P8">
-        <v>0.09437213338006702</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="Q8">
-        <v>7.226924965580666</v>
+        <v>8.219373287755998</v>
       </c>
       <c r="R8">
-        <v>65.042324690226</v>
+        <v>73.97435958980398</v>
       </c>
       <c r="S8">
-        <v>0.04087729643971522</v>
+        <v>0.02721511946938061</v>
       </c>
       <c r="T8">
-        <v>0.04087729643971522</v>
+        <v>0.02721511946938061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.866178</v>
       </c>
       <c r="I9">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J9">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.105029</v>
+        <v>3.764580333333333</v>
       </c>
       <c r="N9">
-        <v>33.31508700000001</v>
+        <v>11.293741</v>
       </c>
       <c r="O9">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027106</v>
       </c>
       <c r="P9">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027107</v>
       </c>
       <c r="Q9">
-        <v>14.311339603054</v>
+        <v>4.851512554655333</v>
       </c>
       <c r="R9">
-        <v>128.802056427486</v>
+        <v>43.663612991898</v>
       </c>
       <c r="S9">
-        <v>0.0809485187946006</v>
+        <v>0.01606381522771696</v>
       </c>
       <c r="T9">
-        <v>0.0809485187946006</v>
+        <v>0.01606381522771696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H10">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I10">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J10">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.33306566666667</v>
+        <v>52.47402833333333</v>
       </c>
       <c r="N10">
-        <v>90.999197</v>
+        <v>157.422085</v>
       </c>
       <c r="O10">
-        <v>0.510466355126488</v>
+        <v>0.699720168977827</v>
       </c>
       <c r="P10">
-        <v>0.510466355126488</v>
+        <v>0.6997201689778269</v>
       </c>
       <c r="Q10">
-        <v>31.79215690238655</v>
+        <v>46.48670671781444</v>
       </c>
       <c r="R10">
-        <v>286.129412121479</v>
+        <v>418.3803604603299</v>
       </c>
       <c r="S10">
-        <v>0.1798243967311449</v>
+        <v>0.1539218663967967</v>
       </c>
       <c r="T10">
-        <v>0.179824396731145</v>
+        <v>0.1539218663967967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H11">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I11">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J11">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>37.129086</v>
       </c>
       <c r="O11">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="P11">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="Q11">
-        <v>12.971693890378</v>
+        <v>10.964210844892</v>
       </c>
       <c r="R11">
-        <v>116.745245013402</v>
+        <v>98.677897604028</v>
       </c>
       <c r="S11">
-        <v>0.07337114734241884</v>
+        <v>0.03630353526779407</v>
       </c>
       <c r="T11">
-        <v>0.07337114734241887</v>
+        <v>0.03630353526779407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H12">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I12">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J12">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.607805666666667</v>
+        <v>6.377905999999999</v>
       </c>
       <c r="N12">
-        <v>16.823417</v>
+        <v>19.133718</v>
       </c>
       <c r="O12">
-        <v>0.09437213338006703</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="P12">
-        <v>0.09437213338006702</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="Q12">
-        <v>5.877554204113221</v>
+        <v>5.650182673462666</v>
       </c>
       <c r="R12">
-        <v>52.897987837019</v>
+        <v>50.851644061164</v>
       </c>
       <c r="S12">
-        <v>0.03324491767747674</v>
+        <v>0.01870828724997502</v>
       </c>
       <c r="T12">
-        <v>0.03324491767747674</v>
+        <v>0.01870828724997502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H13">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I13">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J13">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.105029</v>
+        <v>3.764580333333333</v>
       </c>
       <c r="N13">
-        <v>33.31508700000001</v>
+        <v>11.293741</v>
       </c>
       <c r="O13">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027106</v>
       </c>
       <c r="P13">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027107</v>
       </c>
       <c r="Q13">
-        <v>11.63920680663433</v>
+        <v>3.335039207579777</v>
       </c>
       <c r="R13">
-        <v>104.752861259709</v>
+        <v>30.015352868218</v>
       </c>
       <c r="S13">
-        <v>0.06583426688721891</v>
+        <v>0.01104262907788335</v>
       </c>
       <c r="T13">
-        <v>0.06583426688721893</v>
+        <v>0.01104262907788336</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H14">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I14">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J14">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.33306566666667</v>
+        <v>52.47402833333333</v>
       </c>
       <c r="N14">
-        <v>90.999197</v>
+        <v>157.422085</v>
       </c>
       <c r="O14">
-        <v>0.510466355126488</v>
+        <v>0.699720168977827</v>
       </c>
       <c r="P14">
-        <v>0.510466355126488</v>
+        <v>0.6997201689778269</v>
       </c>
       <c r="Q14">
-        <v>6.139928153049667</v>
+        <v>10.41065481656278</v>
       </c>
       <c r="R14">
-        <v>55.259353377447</v>
+        <v>93.69589334906499</v>
       </c>
       <c r="S14">
-        <v>0.03472897040250347</v>
+        <v>0.03447065909627167</v>
       </c>
       <c r="T14">
-        <v>0.03472897040250348</v>
+        <v>0.03447065909627166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H15">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I15">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J15">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>37.129086</v>
       </c>
       <c r="O15">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="P15">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="Q15">
-        <v>2.505186066954</v>
+        <v>2.455424840806</v>
       </c>
       <c r="R15">
-        <v>22.546674602586</v>
+        <v>22.098823567254</v>
       </c>
       <c r="S15">
-        <v>0.01416995942025737</v>
+        <v>0.008130143023211472</v>
       </c>
       <c r="T15">
-        <v>0.01416995942025737</v>
+        <v>0.008130143023211472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H16">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I16">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J16">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.607805666666667</v>
+        <v>6.377905999999999</v>
       </c>
       <c r="N16">
-        <v>16.823417</v>
+        <v>19.133718</v>
       </c>
       <c r="O16">
-        <v>0.09437213338006703</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="P16">
-        <v>0.09437213338006702</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="Q16">
-        <v>1.135115199629667</v>
+        <v>1.265353164744667</v>
       </c>
       <c r="R16">
-        <v>10.216036796667</v>
+        <v>11.388178482702</v>
       </c>
       <c r="S16">
-        <v>0.006420495678241796</v>
+        <v>0.004189703563017838</v>
       </c>
       <c r="T16">
-        <v>0.006420495678241797</v>
+        <v>0.004189703563017838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H17">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I17">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J17">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.105029</v>
+        <v>3.764580333333333</v>
       </c>
       <c r="N17">
-        <v>33.31508700000001</v>
+        <v>11.293741</v>
       </c>
       <c r="O17">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027106</v>
       </c>
       <c r="P17">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027107</v>
       </c>
       <c r="Q17">
-        <v>2.247846655093</v>
+        <v>0.7468789346721111</v>
       </c>
       <c r="R17">
-        <v>20.230619895837</v>
+        <v>6.721910412049</v>
       </c>
       <c r="S17">
-        <v>0.01271438329702875</v>
+        <v>0.002472986531289979</v>
       </c>
       <c r="T17">
-        <v>0.01271438329702875</v>
+        <v>0.00247298653128998</v>
       </c>
     </row>
   </sheetData>
